--- a/data_clear_and_analysis/database/normalization.xlsx
+++ b/data_clear_and_analysis/database/normalization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\新建文件夹\swine-data-analysis\data_clear_and_analysis\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BFD824-0456-4D54-927D-460A1544002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9CA067-1552-464B-9045-4A665069C1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -173,21 +173,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1325,7 +1325,7 @@
             <c:numRef>
               <c:f>[1]生猪存栏!$A$131:$A$143</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43465</c:v>
@@ -1446,7 +1446,7 @@
             <c:numRef>
               <c:f>[1]生猪存栏!$A$131:$A$143</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43465</c:v>
@@ -1567,7 +1567,7 @@
             <c:numRef>
               <c:f>[1]生猪存栏!$A$131:$A$143</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43465</c:v>
@@ -1704,7 +1704,7 @@
             <c:numRef>
               <c:f>[1]生猪存栏!$A$131:$A$143</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43465</c:v>
@@ -1752,7 +1752,7 @@
             <c:numRef>
               <c:f>[1]生猪存栏!$B$132:$B$143</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>29338</c:v>
@@ -1810,14 +1810,14 @@
         <c:axId val="1737567552"/>
         <c:axId val="1737541152"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1737580512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1857,9 +1857,10 @@
         <c:crossAx val="1737577152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1737577152"/>
         <c:scaling>
@@ -1923,7 +1924,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1958,23 +1959,24 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1737567552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1737541152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2072,6 +2074,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3126,8 +3158,8 @@
         <c:axId val="955662000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44926"/>
-          <c:min val="44197"/>
+          <c:max val="44562"/>
+          <c:min val="43800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3351,6 +3383,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$64</c:f>
@@ -3766,6 +3813,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$64</c:f>
@@ -4175,579 +4237,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7C6A953C-41BF-4330-A0D1-2D45C89ECCFA}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C6A953C-41BF-4330-A0D1-2D45C89ECCFA}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$14</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>85.17 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3DBC14DD-9A04-4286-8DDA-A7466FFBD3A8}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3DBC14DD-9A04-4286-8DDA-A7466FFBD3A8}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$15</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>83.71 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{16AD431A-0837-47EB-8234-0013EDA85272}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{16AD431A-0837-47EB-8234-0013EDA85272}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$16</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>83.86 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{666BD567-CA82-4234-83ED-AD7D923E8006}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{666BD567-CA82-4234-83ED-AD7D923E8006}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$17</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>84.74 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6830B5BE-7E07-434D-9A3D-7B25F9755CFE}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6830B5BE-7E07-434D-9A3D-7B25F9755CFE}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$18</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>85.17 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2324E7FC-901F-4509-B725-7CF9A194844B}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2324E7FC-901F-4509-B725-7CF9A194844B}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$19</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>85.46 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{39C3977B-858A-45CE-A51C-5384885F45C5}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{39C3977B-858A-45CE-A51C-5384885F45C5}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$20</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>84.84 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5E422422-A405-40BF-A0D0-24988D987F75}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5E422422-A405-40BF-A0D0-24988D987F75}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$21</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>83.76 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9299B73F-ED9F-4C63-8CFA-4D37EE54E349}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9299B73F-ED9F-4C63-8CFA-4D37EE54E349}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$22</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>84.26 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C0B73C67-3E3C-48C2-B192-CBE62972A3A5}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C0B73C67-3E3C-48C2-B192-CBE62972A3A5}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$23</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>86.46 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B4B942EE-B6A7-4D66-A4EA-3EBDDB505727}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B4B942EE-B6A7-4D66-A4EA-3EBDDB505727}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$24</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>90.01 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{04B1A816-C68C-4DB5-AC63-80EB7AEB8F07}" type="CELLREF">
-                      <a:rPr lang="en-US" altLang="zh-CN"/>
-                      <a:pPr/>
-                      <a:t>[CELLREF]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{04B1A816-C68C-4DB5-AC63-80EB7AEB8F07}</c15:txfldGUID>
-                      <c15:f>Sheet1!$H$25</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>90.85 </c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-8FC1-472F-99AD-F1D31168B4DE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$64</c:f>
@@ -5146,6 +4635,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5161,8 +4651,8 @@
         <c:axId val="955665840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44926"/>
-          <c:min val="44197"/>
+          <c:max val="44562"/>
+          <c:min val="43800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7800,13 +7290,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7829,6 +7319,156 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DC3B40-91DD-4083-AA82-010094BD9368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17802225" y="647700"/>
+          <a:ext cx="0" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E329D547-A39E-46E7-88CC-1B22986ED2B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15144750" y="647700"/>
+          <a:ext cx="0" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5BBD92-68F4-4268-94F5-061793343B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611100" y="647700"/>
+          <a:ext cx="0" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8405,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
